--- a/biology/Botanique/Bertiera_rufa/Bertiera_rufa.xlsx
+++ b/biology/Botanique/Bertiera_rufa/Bertiera_rufa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertiera rufa ou Bois de raisin, est une plante de la famille des Rubiacées. Elle est endémique de l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien. 
 </t>
@@ -511,11 +523,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce rencontrée dans les forêts humides de l'île, entre 400 et 1700 m d'altitude. 
-Bien qu'endémique, elle n'est pas protégée[2].
-Elle est une plante hôte pour ''Epiplema dadanti'', papillon endémique[3].
+Bien qu'endémique, elle n'est pas protégée.
+Elle est une plante hôte pour ''Epiplema dadanti'', papillon endémique.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbrisseau mesure entre 2 et 4 m de hauteur.
 L'infrutescence ressemble à une grappe de raisin. 
-Les fruits sont des baies bleu foncé-pourpre, mangées par les oiseaux[4].
+Les fruits sont des baies bleu foncé-pourpre, mangées par les oiseaux.
 </t>
         </is>
       </c>
